--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_174__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_174__Reeval_Halton_Modell_1.2.xlsx
@@ -6011,22 +6011,22 @@
                   <c:v>-2.407048940658569</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.92321014404297</c:v>
+                  <c:v>33.92322540283203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.39676666259766</c:v>
+                  <c:v>95.39677429199219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95.65158081054688</c:v>
+                  <c:v>95.65158843994141</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-2.407048940658569</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>92.1905517578125</c:v>
+                  <c:v>92.19055938720703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.64234924316406</c:v>
+                  <c:v>93.64235687255859</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-2.407048940658569</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>-2.407048940658569</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.39682769775391</c:v>
+                  <c:v>50.3968505859375</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>78.70858764648438</c:v>
@@ -6053,19 +6053,19 @@
                   <c:v>-2.407048940658569</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92.32398986816406</c:v>
+                  <c:v>92.32399749755859</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-2.407048940658569</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.565635204315186</c:v>
+                  <c:v>-1.565652847290039</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-2.407048940658569</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.40989351272583</c:v>
+                  <c:v>6.409882068634033</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-2.407048940658569</c:v>
@@ -6149,7 +6149,7 @@
                   <c:v>-2.407048940658569</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>90.75417327880859</c:v>
+                  <c:v>90.75415802001953</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>83.0491943359375</c:v>
@@ -6173,7 +6173,7 @@
                   <c:v>-2.407048940658569</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.9008724093437195</c:v>
+                  <c:v>0.900854766368866</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>93.14597320556641</c:v>
@@ -6185,7 +6185,7 @@
                   <c:v>-2.407048940658569</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>94.58358764648438</c:v>
+                  <c:v>94.58359527587891</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>81.79498291015625</c:v>
@@ -6263,13 +6263,13 @@
                   <c:v>-2.407048940658569</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>94.74465942382812</c:v>
+                  <c:v>94.74465179443359</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>-2.407048940658569</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>90.18806457519531</c:v>
+                  <c:v>90.18805694580078</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>-2.407048940658569</c:v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.92321014404297</v>
+        <v>33.92322540283203</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>94.40819999999999</v>
       </c>
       <c r="F11">
-        <v>95.39676666259766</v>
+        <v>95.39677429199219</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>95.65158081054688</v>
+        <v>95.65158843994141</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>92.1905517578125</v>
+        <v>92.19055938720703</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>93.9735</v>
       </c>
       <c r="F15">
-        <v>93.64234924316406</v>
+        <v>93.64235687255859</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>50.39682769775391</v>
+        <v>50.3968505859375</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>92.32398986816406</v>
+        <v>92.32399749755859</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-1.565635204315186</v>
+        <v>-1.565652847290039</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>6.40989351272583</v>
+        <v>6.409882068634033</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>90.75417327880859</v>
+        <v>90.75415802001953</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>72.6528</v>
       </c>
       <c r="F64">
-        <v>0.9008724093437195</v>
+        <v>0.900854766368866</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>94.58358764648438</v>
+        <v>94.58359527587891</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>95.8237</v>
       </c>
       <c r="F94">
-        <v>94.74465942382812</v>
+        <v>94.74465179443359</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>92.05110000000001</v>
       </c>
       <c r="F96">
-        <v>90.18806457519531</v>
+        <v>90.18805694580078</v>
       </c>
     </row>
     <row r="97" spans="1:6">
